--- a/sources/2.3.0/validation/S102 ValidationChecks.xlsx
+++ b/sources/2.3.0/validation/S102 ValidationChecks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\git\S-102-Product-Specification\sources\2.3.0\validation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12F59525-517D-4AF7-A1BB-352D28B7918B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33BE7F64-6377-40FE-8D39-A0E9681D98B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="18240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="387">
   <si>
     <t>Check message</t>
   </si>
@@ -640,16 +640,6 @@
     <t>Inconsistent value for epoch</t>
   </si>
   <si>
-    <t>Inconsistent value for griddingMethod</t>
-  </si>
-  <si>
-    <t>Correct attribute value or delete attribute</t>
-  </si>
-  <si>
-    <t>Table 8
-Table 9</t>
-  </si>
-  <si>
     <t>Wrong format for data or time</t>
   </si>
   <si>
@@ -658,9 +648,6 @@
   <si>
     <t>Table 8;
 clause 5.4</t>
-  </si>
-  <si>
-    <t>Note that a fill value for griddingMethod is not allowed; if the value is unknown, the attribute should be omitted.</t>
   </si>
   <si>
     <t>Conditionally mandatory General Metadata attribute missing</t>
@@ -1178,28 +1165,6 @@
     <t>Applies only to required parameters (previous test).
 The values are specified in the EPSG registry.
 Github issue #15</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">IF attribute </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>griddingMethod</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> is present and its value IS NOT one of the values in S102_GriddingMethod</t>
-    </r>
   </si>
   <si>
     <r>
@@ -3487,7 +3452,7 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3531,6 +3496,33 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3538,15 +3530,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3568,42 +3551,21 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3936,7 +3898,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B2" t="s">
         <v>100</v>
@@ -3950,23 +3912,23 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B3" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="E3" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -3984,10 +3946,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N237"/>
+  <dimension ref="A1:N236"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="M85" sqref="M85"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4053,36 +4015,36 @@
     </row>
     <row r="2" spans="1:14" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="26"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="32"/>
       <c r="M2" s="8"/>
     </row>
     <row r="3" spans="1:14" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8"/>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="18" t="s">
-        <v>218</v>
-      </c>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="20"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="33" t="s">
+        <v>213</v>
+      </c>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="35"/>
       <c r="K3" s="9"/>
       <c r="L3" s="10"/>
       <c r="M3" s="8"/>
@@ -4092,7 +4054,7 @@
         <v>66</v>
       </c>
       <c r="B4" s="7" t="str">
-        <f t="shared" ref="B4:B14" si="0">"S102_1"&amp;TEXT(ROW(), "000")</f>
+        <f t="shared" ref="B4:B13" si="0">"S102_1"&amp;TEXT(ROW(), "000")</f>
         <v>S102_1004</v>
       </c>
       <c r="F4" s="7" t="s">
@@ -4111,7 +4073,7 @@
         <v>62</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="L4" s="7">
         <v>10.199999999999999</v>
@@ -4126,7 +4088,7 @@
         <v>S102_1005</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>106</v>
@@ -4141,10 +4103,10 @@
         <v>62</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="M5" s="7" t="s">
         <v>108</v>
@@ -4159,13 +4121,13 @@
         <v>S102_1006</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="I6" s="7" t="s">
         <v>6</v>
@@ -4180,7 +4142,7 @@
         <v>107</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="92.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -4225,13 +4187,13 @@
         <v>S102_1008</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="I8" s="7" t="s">
         <v>9</v>
@@ -4240,10 +4202,10 @@
         <v>15</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="M8" s="14" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="60" x14ac:dyDescent="0.25">
@@ -4255,7 +4217,7 @@
         <v>S102_1009</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>113</v>
@@ -4288,7 +4250,7 @@
         <v>S102_1010</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>117</v>
@@ -4306,10 +4268,10 @@
         <v>107</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="48" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="72" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>69</v>
       </c>
@@ -4318,13 +4280,13 @@
         <v>S102_1011</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>190</v>
+        <v>136</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="I11" s="7" t="s">
         <v>10</v>
@@ -4333,13 +4295,13 @@
         <v>27</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="72" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>69</v>
       </c>
@@ -4348,28 +4310,32 @@
         <v>S102_1012</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>10</v>
+        <v>6</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>27</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="M12" s="7" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="120" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+      <c r="M12" s="7" t="str">
+        <f>"If not checked in "&amp;B9</f>
+        <v>If not checked in S102_1009</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="36" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>69</v>
       </c>
@@ -4377,38 +4343,41 @@
         <f t="shared" si="0"/>
         <v>S102_1013</v>
       </c>
+      <c r="D13" s="7" t="str">
+        <f>B12</f>
+        <v>S102_1012</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>142</v>
+      </c>
       <c r="F13" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>145</v>
+        <v>10</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="M13" s="7" t="str">
-        <f>"If not checked in "&amp;B9</f>
-        <v>If not checked in S102_1009</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="36" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+      <c r="M13" s="14" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>69</v>
       </c>
       <c r="B14" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="B14:B32" si="1">"S102_1"&amp;TEXT(ROW(), "000")</f>
         <v>S102_1014</v>
       </c>
       <c r="D14" s="7" t="str">
@@ -4416,16 +4385,16 @@
         <v>S102_1013</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="H14" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="I14" s="7" t="s">
         <v>10</v>
@@ -4434,50 +4403,50 @@
         <v>15</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>107</v>
+        <v>139</v>
       </c>
       <c r="M14" s="14" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="48" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="36" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>69</v>
       </c>
       <c r="B15" s="7" t="str">
-        <f t="shared" ref="B15:B33" si="1">"S102_1"&amp;TEXT(ROW(), "000")</f>
+        <f t="shared" si="1"/>
         <v>S102_1015</v>
       </c>
       <c r="D15" s="7" t="str">
-        <f>B14</f>
-        <v>S102_1014</v>
+        <f>B12</f>
+        <v>S102_1012</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>152</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>143</v>
+        <v>107</v>
       </c>
       <c r="M15" s="14" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="36" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="48" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>69</v>
       </c>
@@ -4486,35 +4455,35 @@
         <v>S102_1016</v>
       </c>
       <c r="D16" s="7" t="str">
-        <f>B13</f>
-        <v>S102_1013</v>
+        <f>B15</f>
+        <v>S102_1015</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="H16" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="I16" s="7" t="s">
         <v>9</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>16</v>
+        <v>157</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>107</v>
       </c>
       <c r="M16" s="14" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="48" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="36" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>69</v>
       </c>
@@ -4527,10 +4496,10 @@
         <v>S102_1016</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>162</v>
+        <v>187</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>159</v>
@@ -4542,13 +4511,13 @@
         <v>9</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>161</v>
+        <v>15</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>107</v>
       </c>
       <c r="M17" s="14" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="36" x14ac:dyDescent="0.25">
@@ -4563,14 +4532,11 @@
         <f>B17</f>
         <v>S102_1017</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>146</v>
-      </c>
       <c r="F18" s="7" t="s">
-        <v>192</v>
+        <v>161</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H18" s="7" t="s">
         <v>164</v>
@@ -4585,10 +4551,10 @@
         <v>107</v>
       </c>
       <c r="M18" s="14" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="36" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="96" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>69</v>
       </c>
@@ -4596,33 +4562,29 @@
         <f t="shared" si="1"/>
         <v>S102_1019</v>
       </c>
-      <c r="D19" s="7" t="str">
-        <f>B18</f>
-        <v>S102_1018</v>
-      </c>
       <c r="F19" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="H19" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="H19" s="7" t="s">
-        <v>168</v>
-      </c>
       <c r="I19" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="K19" s="11" t="s">
+        <v>27</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>107</v>
+        <v>139</v>
       </c>
       <c r="M19" s="14" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="96" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="84" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>69</v>
       </c>
@@ -4631,28 +4593,28 @@
         <v>S102_1020</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G20" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="H20" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="H20" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="I20" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="K20" s="11" t="s">
-        <v>27</v>
+      <c r="K20" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="M20" s="14" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="84" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>69</v>
       </c>
@@ -4660,26 +4622,33 @@
         <f t="shared" si="1"/>
         <v>S102_1021</v>
       </c>
+      <c r="D21" s="7" t="str">
+        <f>B17</f>
+        <v>S102_1017</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>142</v>
+      </c>
       <c r="F21" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="I21" s="7" t="s">
         <v>10</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>15</v>
+        <v>171</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="M21" s="14" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="60" x14ac:dyDescent="0.25">
@@ -4691,35 +4660,36 @@
         <v>S102_1022</v>
       </c>
       <c r="D22" s="7" t="str">
-        <f>B18</f>
-        <v>S102_1018</v>
+        <f>B17 &amp;CHAR(10) &amp; B21</f>
+        <v>S102_1017
+S102_1021</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>181</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="I22" s="7" t="s">
         <v>10</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="M22" s="14" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="84" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>69</v>
       </c>
@@ -4727,67 +4697,60 @@
         <f t="shared" si="1"/>
         <v>S102_1023</v>
       </c>
-      <c r="D23" s="7" t="str">
-        <f>B18 &amp;CHAR(10) &amp; B22</f>
-        <v>S102_1018
-S102_1022</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>146</v>
-      </c>
       <c r="F23" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>175</v>
+        <v>15</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>143</v>
+        <v>107</v>
       </c>
       <c r="M23" s="14" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="84" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="48" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B24" s="7" t="str">
         <f t="shared" si="1"/>
         <v>S102_1024</v>
       </c>
+      <c r="D24" s="7" t="str">
+        <f>B4</f>
+        <v>S102_1004</v>
+      </c>
       <c r="F24" s="7" t="s">
-        <v>193</v>
+        <v>82</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>194</v>
+        <v>13</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>195</v>
+        <v>14</v>
       </c>
       <c r="I24" s="7" t="s">
         <v>6</v>
       </c>
+      <c r="J24" s="7" t="s">
+        <v>62</v>
+      </c>
       <c r="K24" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="M24" s="14" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="48" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>66</v>
       </c>
@@ -4796,17 +4759,17 @@
         <v>S102_1025</v>
       </c>
       <c r="D25" s="7" t="str">
-        <f>B4</f>
-        <v>S102_1004</v>
+        <f>B24</f>
+        <v>S102_1024</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>82</v>
+        <v>195</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>13</v>
+        <v>192</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="I25" s="7" t="s">
         <v>6</v>
@@ -4815,10 +4778,13 @@
         <v>62</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="72" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>66</v>
       </c>
@@ -4827,32 +4793,35 @@
         <v>S102_1026</v>
       </c>
       <c r="D26" s="7" t="str">
-        <f>B25</f>
-        <v>S102_1025</v>
+        <f>B24</f>
+        <v>S102_1024</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="G26" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="I26" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="H26" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I26" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>16</v>
-      </c>
       <c r="L26" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="M26" s="7" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="72" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" ht="36" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>66</v>
       </c>
@@ -4861,35 +4830,32 @@
         <v>S102_1027</v>
       </c>
       <c r="D27" s="7" t="str">
-        <f>B25</f>
-        <v>S102_1025</v>
+        <f>B24</f>
+        <v>S102_1024</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="G27" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="H27" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="H27" s="7" t="s">
-        <v>204</v>
-      </c>
       <c r="I27" s="7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>207</v>
+        <v>62</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>202</v>
+        <v>16</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="M27" s="7" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" ht="36" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="72" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>66</v>
       </c>
@@ -4901,14 +4867,17 @@
         <f>B25</f>
         <v>S102_1025</v>
       </c>
+      <c r="E28" s="7" t="s">
+        <v>83</v>
+      </c>
       <c r="F28" s="7" t="s">
-        <v>208</v>
+        <v>84</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>205</v>
+        <v>58</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>206</v>
+        <v>18</v>
       </c>
       <c r="I28" s="7" t="s">
         <v>6</v>
@@ -4919,11 +4888,11 @@
       <c r="K28" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="L28" s="7" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" ht="72" x14ac:dyDescent="0.25">
+      <c r="M28" s="14" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="51.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>66</v>
       </c>
@@ -4932,128 +4901,124 @@
         <v>S102_1029</v>
       </c>
       <c r="D29" s="7" t="str">
-        <f>B26</f>
-        <v>S102_1026</v>
+        <f>B25</f>
+        <v>S102_1025</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>83</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I29" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="J29" s="7" t="s">
-        <v>62</v>
-      </c>
       <c r="K29" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M29" s="14" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" ht="51.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="M29" s="7" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B30" s="7" t="str">
         <f t="shared" si="1"/>
         <v>S102_1030</v>
       </c>
       <c r="D30" s="7" t="str">
-        <f>B26</f>
-        <v>S102_1026</v>
+        <f>B28</f>
+        <v>S102_1028</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>59</v>
+        <v>204</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>17</v>
+        <v>205</v>
       </c>
       <c r="I30" s="7" t="s">
         <v>6</v>
       </c>
+      <c r="J30" s="7" t="s">
+        <v>62</v>
+      </c>
       <c r="K30" s="7" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="M30" s="7" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="47.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B31" s="7" t="str">
         <f t="shared" si="1"/>
         <v>S102_1031</v>
       </c>
-      <c r="D31" s="7" t="str">
-        <f>B29</f>
-        <v>S102_1029</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>75</v>
-      </c>
+      <c r="E31" s="6"/>
       <c r="F31" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H31" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="G31" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H31" s="7" t="s">
-        <v>210</v>
-      </c>
       <c r="I31" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>62</v>
+        <v>10</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" ht="47.45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="M31" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B32" s="7" t="str">
         <f t="shared" si="1"/>
         <v>S102_1032</v>
       </c>
-      <c r="E32" s="6"/>
+      <c r="D32" s="7" t="s">
+        <v>19</v>
+      </c>
       <c r="F32" s="7" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="I32" s="7" t="s">
-        <v>10</v>
+        <v>50</v>
+      </c>
+      <c r="I32" s="11" t="s">
+        <v>11</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>27</v>
@@ -5062,91 +5027,94 @@
         <v>27</v>
       </c>
       <c r="M32" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="B33" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>S102_1033</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H33" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="I33" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="M33" s="7" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="15" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="16"/>
-      <c r="I34" s="16"/>
-      <c r="J34" s="16"/>
-      <c r="K34" s="16"/>
-      <c r="L34" s="17"/>
-    </row>
-    <row r="35" spans="1:13" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="21" t="s">
-        <v>232</v>
-      </c>
-      <c r="C35" s="22"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="15" t="s">
-        <v>231</v>
-      </c>
-      <c r="G35" s="16"/>
-      <c r="H35" s="16"/>
-      <c r="I35" s="16"/>
-      <c r="J35" s="17"/>
-    </row>
-    <row r="36" spans="1:13" ht="147.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C33" s="25"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="25"/>
+      <c r="J33" s="25"/>
+      <c r="K33" s="25"/>
+      <c r="L33" s="26"/>
+    </row>
+    <row r="34" spans="1:13" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="27" t="s">
+        <v>227</v>
+      </c>
+      <c r="C34" s="28"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="G34" s="25"/>
+      <c r="H34" s="25"/>
+      <c r="I34" s="25"/>
+      <c r="J34" s="26"/>
+    </row>
+    <row r="35" spans="1:13" ht="147.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B35" s="7" t="str">
+        <f>"S102_2"&amp;TEXT(ROW(), "000")</f>
+        <v>S102_2035</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="I35" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="M35" s="7" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B36" s="7" t="str">
-        <f>"S102_2"&amp;TEXT(ROW(), "000")</f>
+        <f t="shared" ref="B36:B47" si="2">"S102_2"&amp;TEXT(ROW(), "000")</f>
         <v>S102_2036</v>
       </c>
+      <c r="E36" s="7" t="s">
+        <v>316</v>
+      </c>
       <c r="F36" s="7" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>308</v>
+        <v>228</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="I36" s="7" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J36" s="7" t="s">
         <v>62</v>
@@ -5155,176 +5123,173 @@
         <v>33</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>310</v>
+        <v>215</v>
       </c>
       <c r="M36" s="7" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B37" s="7" t="str">
-        <f t="shared" ref="B37:B48" si="2">"S102_2"&amp;TEXT(ROW(), "000")</f>
+        <f t="shared" si="2"/>
         <v>S102_2037</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>307</v>
+        <v>217</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>233</v>
+        <v>85</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>221</v>
+        <v>29</v>
       </c>
       <c r="I37" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="J37" s="7" t="s">
-        <v>62</v>
-      </c>
       <c r="K37" s="7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="M37" s="7" t="s">
-        <v>312</v>
+        <v>218</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B38" s="7" t="str">
         <f t="shared" si="2"/>
         <v>S102_2038</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>85</v>
+        <v>221</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>29</v>
+        <v>220</v>
       </c>
       <c r="I38" s="7" t="s">
         <v>9</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>223</v>
+        <v>27</v>
+      </c>
+      <c r="M38" s="7" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B39" s="7" t="str">
         <f t="shared" si="2"/>
         <v>S102_2039</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="I39" s="7" t="s">
         <v>9</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>27</v>
+        <v>235</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>27</v>
+        <v>234</v>
       </c>
       <c r="M39" s="7" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B40" s="7" t="str">
         <f t="shared" si="2"/>
         <v>S102_2040</v>
       </c>
+      <c r="D40" s="7" t="str">
+        <f>B39</f>
+        <v>S102_2039</v>
+      </c>
       <c r="E40" s="7" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="I40" s="7" t="s">
         <v>9</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>240</v>
+        <v>27</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="M40" s="7" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" ht="52.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B41" s="7" t="str">
         <f t="shared" si="2"/>
         <v>S102_2041</v>
       </c>
-      <c r="D41" s="7" t="str">
-        <f>B40</f>
-        <v>S102_2040</v>
-      </c>
       <c r="E41" s="7" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>242</v>
+        <v>36</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>245</v>
+        <v>314</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>9</v>
+        <v>6</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>62</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="52.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5335,17 +5300,21 @@
         <f t="shared" si="2"/>
         <v>S102_2042</v>
       </c>
+      <c r="D42" s="7" t="str">
+        <f>B41</f>
+        <v>S102_2041</v>
+      </c>
       <c r="E42" s="7" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>36</v>
+        <v>86</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>234</v>
+        <v>31</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>319</v>
+        <v>32</v>
       </c>
       <c r="I42" s="7" t="s">
         <v>6</v>
@@ -5357,7 +5326,7 @@
         <v>30</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>235</v>
+        <v>27</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="52.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5368,33 +5337,29 @@
         <f t="shared" si="2"/>
         <v>S102_2043</v>
       </c>
-      <c r="D43" s="7" t="str">
-        <f>B42</f>
-        <v>S102_2042</v>
-      </c>
       <c r="E43" s="7" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>86</v>
+        <v>308</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>31</v>
+        <v>310</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>32</v>
+        <v>313</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J43" s="7" t="s">
-        <v>62</v>
+        <v>10</v>
       </c>
       <c r="K43" s="7" t="s">
         <v>30</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>27</v>
+        <v>230</v>
+      </c>
+      <c r="M43" s="7" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="44" spans="1:13" ht="52.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5405,17 +5370,21 @@
         <f t="shared" si="2"/>
         <v>S102_2044</v>
       </c>
+      <c r="D44" s="7" t="str">
+        <f>B43</f>
+        <v>S102_2043</v>
+      </c>
       <c r="E44" s="7" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="I44" s="7" t="s">
         <v>10</v>
@@ -5424,216 +5393,209 @@
         <v>30</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>235</v>
+        <v>27</v>
       </c>
       <c r="M44" s="7" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" ht="52.15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="72" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B45" s="7" t="str">
         <f t="shared" si="2"/>
         <v>S102_2045</v>
       </c>
       <c r="D45" s="7" t="str">
-        <f>B44</f>
-        <v>S102_2044</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>321</v>
+        <f>B35</f>
+        <v>S102_2035</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>314</v>
+        <v>87</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>316</v>
+        <v>34</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>317</v>
+        <v>35</v>
       </c>
       <c r="I45" s="7" t="s">
         <v>10</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>27</v>
+        <v>318</v>
       </c>
       <c r="M45" s="7" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" ht="72" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="100.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B46" s="7" t="str">
         <f t="shared" si="2"/>
         <v>S102_2046</v>
       </c>
-      <c r="D46" s="7" t="str">
-        <f>B36</f>
-        <v>S102_2036</v>
-      </c>
       <c r="F46" s="7" t="s">
-        <v>87</v>
+        <v>37</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>34</v>
+        <v>242</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>35</v>
+        <v>209</v>
       </c>
       <c r="I46" s="7" t="s">
         <v>10</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>323</v>
+        <v>27</v>
       </c>
       <c r="M46" s="7" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" ht="100.15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B47" s="7" t="str">
         <f t="shared" si="2"/>
         <v>S102_2047</v>
       </c>
+      <c r="D47" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="F47" s="7" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="G47" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H47" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="I47" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="M47" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="24" t="s">
+        <v>246</v>
+      </c>
+      <c r="C48" s="25"/>
+      <c r="D48" s="25"/>
+      <c r="E48" s="25"/>
+      <c r="F48" s="25"/>
+      <c r="G48" s="25"/>
+      <c r="H48" s="25"/>
+      <c r="I48" s="25"/>
+      <c r="J48" s="25"/>
+      <c r="K48" s="25"/>
+      <c r="L48" s="26"/>
+    </row>
+    <row r="49" spans="1:13" ht="137.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="27" t="s">
+        <v>258</v>
+      </c>
+      <c r="C49" s="28"/>
+      <c r="D49" s="28"/>
+      <c r="E49" s="29"/>
+      <c r="F49" s="24" t="s">
         <v>247</v>
       </c>
-      <c r="H47" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="I47" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K47" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="L47" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="M47" s="7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="B48" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>S102_2048</v>
-      </c>
-      <c r="D48" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F48" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G48" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="H48" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="I48" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="M48" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="C49" s="16"/>
-      <c r="D49" s="16"/>
-      <c r="E49" s="16"/>
-      <c r="F49" s="16"/>
-      <c r="G49" s="16"/>
-      <c r="H49" s="16"/>
-      <c r="I49" s="16"/>
-      <c r="J49" s="16"/>
-      <c r="K49" s="16"/>
-      <c r="L49" s="17"/>
-    </row>
-    <row r="50" spans="1:13" ht="137.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="21" t="s">
-        <v>263</v>
-      </c>
-      <c r="C50" s="22"/>
-      <c r="D50" s="22"/>
-      <c r="E50" s="23"/>
-      <c r="F50" s="15" t="s">
-        <v>252</v>
-      </c>
-      <c r="G50" s="16"/>
-      <c r="H50" s="16"/>
-      <c r="I50" s="16"/>
-      <c r="J50" s="17"/>
+      <c r="G49" s="25"/>
+      <c r="H49" s="25"/>
+      <c r="I49" s="25"/>
+      <c r="J49" s="26"/>
+      <c r="M49" s="7" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A50" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B50" s="7" t="str">
+        <f>"S102_3"&amp;TEXT(ROW(), "000")</f>
+        <v>S102_3050</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="H50" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="I50" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="L50" s="7" t="s">
+        <v>245</v>
+      </c>
       <c r="M50" s="7" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" ht="72" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B51" s="7" t="str">
-        <f>"S102_3"&amp;TEXT(ROW(), "000")</f>
+        <f t="shared" ref="B51:B69" si="3">"S102_3"&amp;TEXT(ROW(), "000")</f>
         <v>S102_3051</v>
       </c>
       <c r="F51" s="7" t="s">
         <v>248</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="H51" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="I51" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K51" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="L51" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="I51" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="K51" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="L51" s="7" t="s">
-        <v>250</v>
-      </c>
       <c r="M51" s="7" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" ht="72" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" ht="115.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
         <v>69</v>
       </c>
       <c r="B52" s="7" t="str">
-        <f t="shared" ref="B52:B70" si="3">"S102_3"&amp;TEXT(ROW(), "000")</f>
+        <f t="shared" si="3"/>
         <v>S102_3052</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="H52" s="7" t="s">
         <v>43</v>
@@ -5645,13 +5607,13 @@
         <v>27</v>
       </c>
       <c r="L52" s="11" t="s">
-        <v>254</v>
+        <v>27</v>
       </c>
       <c r="M52" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" ht="115.15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
         <v>69</v>
       </c>
@@ -5660,10 +5622,10 @@
         <v>S102_3053</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>257</v>
+        <v>286</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="H53" s="7" t="s">
         <v>43</v>
@@ -5678,10 +5640,10 @@
         <v>27</v>
       </c>
       <c r="M53" s="7" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" ht="115.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
         <v>69</v>
       </c>
@@ -5690,13 +5652,13 @@
         <v>S102_3054</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="H54" s="7" t="s">
-        <v>43</v>
+        <v>251</v>
       </c>
       <c r="I54" s="7" t="s">
         <v>9</v>
@@ -5708,201 +5670,208 @@
         <v>27</v>
       </c>
       <c r="M54" s="7" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" ht="115.15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B55" s="7" t="str">
         <f t="shared" si="3"/>
         <v>S102_3055</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>290</v>
+        <v>255</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="H55" s="7" t="s">
-        <v>256</v>
+        <v>97</v>
       </c>
       <c r="I55" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="K55" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="K55" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="L55" s="11" t="s">
+      <c r="L55" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="M55" s="7" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:13" ht="72" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B56" s="7" t="str">
         <f t="shared" si="3"/>
         <v>S102_3056</v>
       </c>
+      <c r="D56" s="7" t="str">
+        <f>B55</f>
+        <v>S102_3055</v>
+      </c>
       <c r="F56" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="H56" s="7" t="s">
-        <v>97</v>
+        <v>45</v>
       </c>
       <c r="I56" s="7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="K56" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="L56" s="7" t="s">
+      <c r="L56" s="11" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="57" spans="1:13" ht="72" x14ac:dyDescent="0.25">
+      <c r="M56" s="7" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" ht="48" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B57" s="7" t="str">
         <f t="shared" si="3"/>
         <v>S102_3057</v>
       </c>
-      <c r="D57" s="7" t="str">
-        <f>B56</f>
-        <v>S102_3056</v>
+      <c r="E57" s="7" t="s">
+        <v>274</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>284</v>
+        <v>261</v>
       </c>
       <c r="H57" s="7" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="I57" s="7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="K57" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="L57" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="L57" s="11" t="s">
-        <v>27</v>
-      </c>
       <c r="M57" s="7" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" ht="48" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" ht="108" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B58" s="7" t="str">
         <f t="shared" si="3"/>
         <v>S102_3058</v>
       </c>
+      <c r="D58" s="7" t="str">
+        <f>B55 &amp; " AND " &amp; B57</f>
+        <v>S102_3055 AND S102_3057</v>
+      </c>
       <c r="E58" s="7" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="F58" s="7" t="s">
         <v>259</v>
       </c>
       <c r="G58" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="H58" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="I58" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K58" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L58" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="M58" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="H58" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="I58" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="K58" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="L58" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="M58" s="7" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" ht="108" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:13" ht="192" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B59" s="7" t="str">
         <f t="shared" si="3"/>
         <v>S102_3059</v>
       </c>
-      <c r="D59" s="7" t="str">
-        <f>B56 &amp; " AND " &amp; B58</f>
-        <v>S102_3056 AND S102_3058</v>
-      </c>
       <c r="E59" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>292</v>
+        <v>261</v>
       </c>
       <c r="H59" s="7" t="s">
-        <v>76</v>
+        <v>28</v>
       </c>
       <c r="I59" s="7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="K59" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="L59" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="L59" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="M59" s="7" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" ht="192" x14ac:dyDescent="0.25">
+      <c r="M59" s="14" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" ht="82.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B60" s="7" t="str">
         <f t="shared" si="3"/>
         <v>S102_3060</v>
       </c>
+      <c r="D60" s="7" t="str">
+        <f>B55 &amp; " AND " &amp; B59</f>
+        <v>S102_3055 AND S102_3059</v>
+      </c>
       <c r="E60" s="7" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="F60" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="G60" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="H60" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="I60" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K60" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L60" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="M60" s="14" t="s">
         <v>267</v>
-      </c>
-      <c r="G60" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="H60" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="I60" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="K60" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="L60" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="M60" s="14" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="61" spans="1:13" ht="82.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5914,20 +5883,17 @@
         <v>S102_3061</v>
       </c>
       <c r="D61" s="7" t="str">
-        <f>B56 &amp; " AND " &amp; B60</f>
-        <v>S102_3056 AND S102_3060</v>
-      </c>
-      <c r="E61" s="7" t="s">
-        <v>280</v>
+        <f>B55 &amp; " AND " &amp; B57</f>
+        <v>S102_3055 AND S102_3057</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>268</v>
+        <v>88</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="H61" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I61" s="7" t="s">
         <v>10</v>
@@ -5939,138 +5905,137 @@
         <v>27</v>
       </c>
       <c r="M61" s="14" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" ht="82.15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B62" s="7" t="str">
         <f t="shared" si="3"/>
         <v>S102_3062</v>
       </c>
-      <c r="D62" s="7" t="str">
-        <f>B56 &amp; " AND " &amp; B58</f>
-        <v>S102_3056 AND S102_3058</v>
-      </c>
       <c r="F62" s="7" t="s">
-        <v>88</v>
+        <v>268</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="H62" s="7" t="s">
-        <v>77</v>
+        <v>28</v>
       </c>
       <c r="I62" s="7" t="s">
         <v>10</v>
       </c>
       <c r="K62" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="L62" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="M62" s="14" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="L62" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="M62" s="7" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" ht="144" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B63" s="7" t="str">
         <f t="shared" si="3"/>
         <v>S102_3063</v>
       </c>
+      <c r="D63" s="7" t="str">
+        <f>B62</f>
+        <v>S102_3062</v>
+      </c>
       <c r="F63" s="7" t="s">
-        <v>273</v>
+        <v>291</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="H63" s="7" t="s">
-        <v>28</v>
+        <v>78</v>
       </c>
       <c r="I63" s="7" t="s">
         <v>10</v>
       </c>
       <c r="K63" s="7" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="L63" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="M63" s="7" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" ht="144" x14ac:dyDescent="0.25">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" ht="167.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B64" s="7" t="str">
         <f t="shared" si="3"/>
         <v>S102_3064</v>
       </c>
-      <c r="D64" s="7" t="str">
-        <f>B63</f>
-        <v>S102_3063</v>
-      </c>
       <c r="F64" s="7" t="s">
-        <v>296</v>
+        <v>37</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="H64" s="7" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="I64" s="7" t="s">
         <v>10</v>
       </c>
       <c r="K64" s="7" t="s">
-        <v>79</v>
+        <v>27</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="M64" s="7" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" ht="167.45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="M64" s="14" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" ht="132" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B65" s="7" t="str">
         <f t="shared" si="3"/>
         <v>S102_3065</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>37</v>
+        <v>293</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="H65" s="7" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="I65" s="7" t="s">
-        <v>10</v>
+        <v>6</v>
+      </c>
+      <c r="J65" s="7" t="s">
+        <v>62</v>
       </c>
       <c r="K65" s="7" t="s">
-        <v>27</v>
+        <v>298</v>
       </c>
       <c r="L65" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="M65" s="14" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" ht="132" x14ac:dyDescent="0.25">
+        <v>299</v>
+      </c>
+      <c r="M65" s="7" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" ht="46.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
         <v>66</v>
       </c>
@@ -6078,248 +6043,242 @@
         <f t="shared" si="3"/>
         <v>S102_3066</v>
       </c>
+      <c r="E66" s="7" t="s">
+        <v>301</v>
+      </c>
       <c r="F66" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>299</v>
+        <v>320</v>
       </c>
       <c r="H66" s="7" t="s">
-        <v>46</v>
+        <v>319</v>
       </c>
       <c r="I66" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J66" s="7" t="s">
-        <v>62</v>
+        <v>9</v>
       </c>
       <c r="K66" s="7" t="s">
-        <v>303</v>
+        <v>27</v>
       </c>
       <c r="L66" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="M66" s="7" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
     </row>
     <row r="67" spans="1:13" ht="46.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B67" s="7" t="str">
         <f t="shared" si="3"/>
         <v>S102_3067</v>
       </c>
-      <c r="E67" s="7" t="s">
-        <v>306</v>
-      </c>
       <c r="F67" s="7" t="s">
-        <v>300</v>
+        <v>352</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>325</v>
+        <v>353</v>
       </c>
       <c r="H67" s="7" t="s">
-        <v>324</v>
+        <v>354</v>
       </c>
       <c r="I67" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K67" s="7" t="s">
         <v>27</v>
       </c>
       <c r="L67" s="7" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" ht="46.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="B68" s="7" t="str">
+        <v>27</v>
+      </c>
+      <c r="M67" s="7" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" ht="46.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" spans="1:13" ht="46.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B69" s="7" t="str">
         <f t="shared" si="3"/>
-        <v>S102_3068</v>
-      </c>
-      <c r="F68" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="G68" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="H68" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="I68" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K68" s="7" t="s">
+        <v>S102_3069</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F69" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G69" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="H69" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="I69" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="M69" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C70" s="25"/>
+      <c r="D70" s="25"/>
+      <c r="E70" s="25"/>
+      <c r="F70" s="25"/>
+      <c r="G70" s="25"/>
+      <c r="H70" s="25"/>
+      <c r="I70" s="25"/>
+      <c r="J70" s="25"/>
+      <c r="K70" s="25"/>
+      <c r="L70" s="26"/>
+    </row>
+    <row r="71" spans="1:13" ht="139.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="27" t="s">
+        <v>224</v>
+      </c>
+      <c r="C71" s="28"/>
+      <c r="D71" s="28"/>
+      <c r="E71" s="29"/>
+      <c r="F71" s="24" t="s">
+        <v>223</v>
+      </c>
+      <c r="G71" s="25"/>
+      <c r="H71" s="25"/>
+      <c r="I71" s="25"/>
+      <c r="J71" s="26"/>
+    </row>
+    <row r="72" spans="1:13" ht="47.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="F72" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="G72" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="H72" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="K72" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="L68" s="7" t="s">
+      <c r="L72" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="M68" s="7" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" ht="46.15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" spans="1:13" ht="46.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="B70" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>S102_3070</v>
-      </c>
-      <c r="D70" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="F70" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G70" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="H70" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="I70" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="M70" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="C71" s="16"/>
-      <c r="D71" s="16"/>
-      <c r="E71" s="16"/>
-      <c r="F71" s="16"/>
-      <c r="G71" s="16"/>
-      <c r="H71" s="16"/>
-      <c r="I71" s="16"/>
-      <c r="J71" s="16"/>
-      <c r="K71" s="16"/>
-      <c r="L71" s="17"/>
-    </row>
-    <row r="72" spans="1:13" ht="139.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="21" t="s">
-        <v>229</v>
-      </c>
-      <c r="C72" s="22"/>
-      <c r="D72" s="22"/>
-      <c r="E72" s="23"/>
-      <c r="F72" s="15" t="s">
-        <v>228</v>
-      </c>
-      <c r="G72" s="16"/>
-      <c r="H72" s="16"/>
-      <c r="I72" s="16"/>
-      <c r="J72" s="17"/>
-    </row>
-    <row r="73" spans="1:13" ht="47.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="B73" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="F73" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="G73" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="H73" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="K73" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="L73" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="15" t="s">
+    </row>
+    <row r="73" spans="1:13" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="C74" s="16"/>
-      <c r="D74" s="16"/>
-      <c r="E74" s="16"/>
-      <c r="F74" s="16"/>
-      <c r="G74" s="16"/>
-      <c r="H74" s="16"/>
-      <c r="I74" s="16"/>
-      <c r="J74" s="16"/>
-      <c r="K74" s="16"/>
-      <c r="L74" s="17"/>
-    </row>
-    <row r="75" spans="1:13" ht="153.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="21" t="s">
-        <v>341</v>
-      </c>
-      <c r="C75" s="22"/>
-      <c r="D75" s="22"/>
-      <c r="E75" s="23"/>
-      <c r="F75" s="15" t="s">
-        <v>327</v>
-      </c>
-      <c r="G75" s="16"/>
-      <c r="H75" s="16"/>
-      <c r="I75" s="16"/>
-      <c r="J75" s="17"/>
+      <c r="C73" s="25"/>
+      <c r="D73" s="25"/>
+      <c r="E73" s="25"/>
+      <c r="F73" s="25"/>
+      <c r="G73" s="25"/>
+      <c r="H73" s="25"/>
+      <c r="I73" s="25"/>
+      <c r="J73" s="25"/>
+      <c r="K73" s="25"/>
+      <c r="L73" s="26"/>
+    </row>
+    <row r="74" spans="1:13" ht="153.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="27" t="s">
+        <v>336</v>
+      </c>
+      <c r="C74" s="28"/>
+      <c r="D74" s="28"/>
+      <c r="E74" s="29"/>
+      <c r="F74" s="24" t="s">
+        <v>322</v>
+      </c>
+      <c r="G74" s="25"/>
+      <c r="H74" s="25"/>
+      <c r="I74" s="25"/>
+      <c r="J74" s="26"/>
+    </row>
+    <row r="75" spans="1:13" ht="47.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B75" s="7" t="str">
+        <f>"S102_5"&amp;TEXT(ROW(), "000")</f>
+        <v>S102_5075</v>
+      </c>
+      <c r="F75" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="G75" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="H75" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="I75" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K75" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="L75" s="7" t="s">
+        <v>325</v>
+      </c>
     </row>
     <row r="76" spans="1:13" ht="47.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B76" s="7" t="str">
+        <f t="shared" ref="B76:B84" si="4">"S102_5"&amp;TEXT(ROW(), "000")</f>
+        <v>S102_5076</v>
+      </c>
+      <c r="F76" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="G76" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="H76" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="I76" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K76" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="L76" s="7" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" ht="48" x14ac:dyDescent="0.25">
+      <c r="A77" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B76" s="7" t="str">
-        <f>"S102_5"&amp;TEXT(ROW(), "000")</f>
-        <v>S102_5076</v>
-      </c>
-      <c r="F76" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="G76" s="7" t="s">
+      <c r="B77" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v>S102_5077</v>
+      </c>
+      <c r="F77" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="G77" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="H76" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="I76" s="7" t="s">
+      <c r="H77" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="I77" s="7" t="s">
         <v>6</v>
-      </c>
-      <c r="K76" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="L76" s="7" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" ht="47.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="B77" s="7" t="str">
-        <f t="shared" ref="B77:B85" si="4">"S102_5"&amp;TEXT(ROW(), "000")</f>
-        <v>S102_5077</v>
-      </c>
-      <c r="F77" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="G77" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="H77" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="I77" s="7" t="s">
-        <v>10</v>
       </c>
       <c r="K77" s="7" t="s">
         <v>329</v>
@@ -6328,7 +6287,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="78" spans="1:13" ht="48" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" ht="108" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
         <v>66</v>
       </c>
@@ -6336,26 +6295,33 @@
         <f t="shared" si="4"/>
         <v>S102_5078</v>
       </c>
+      <c r="D78" s="7" t="str">
+        <f>B77</f>
+        <v>S102_5077</v>
+      </c>
       <c r="F78" s="7" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="H78" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I78" s="7" t="s">
         <v>6</v>
       </c>
       <c r="K78" s="7" t="s">
-        <v>334</v>
+        <v>348</v>
       </c>
       <c r="L78" s="7" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13" ht="108" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+      <c r="M78" s="14" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="7" t="s">
         <v>66</v>
       </c>
@@ -6367,11 +6333,14 @@
         <f>B78</f>
         <v>S102_5078</v>
       </c>
+      <c r="E79" s="7" t="s">
+        <v>337</v>
+      </c>
       <c r="F79" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G79" s="7" t="s">
         <v>339</v>
-      </c>
-      <c r="G79" s="7" t="s">
-        <v>343</v>
       </c>
       <c r="H79" s="7" t="s">
         <v>54</v>
@@ -6380,18 +6349,15 @@
         <v>6</v>
       </c>
       <c r="K79" s="7" t="s">
-        <v>353</v>
+        <v>55</v>
       </c>
       <c r="L79" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="M79" s="14" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B80" s="7" t="str">
         <f t="shared" si="4"/>
@@ -6402,65 +6368,65 @@
         <v>S102_5079</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="F80" s="7" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>344</v>
+        <v>99</v>
       </c>
       <c r="H80" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I80" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="K80" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L80" s="7" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K80" s="11" t="s">
+        <v>350</v>
+      </c>
+      <c r="L80" s="11" t="s">
+        <v>350</v>
+      </c>
+      <c r="M80" s="7" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B81" s="7" t="str">
         <f t="shared" si="4"/>
         <v>S102_5081</v>
       </c>
       <c r="D81" s="7" t="str">
-        <f>B80</f>
-        <v>S102_5080</v>
+        <f>B78</f>
+        <v>S102_5078</v>
       </c>
       <c r="E81" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="F81" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="G81" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="H81" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="I81" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K81" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L81" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="F81" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="G81" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="H81" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="I81" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="K81" s="11" t="s">
-        <v>355</v>
-      </c>
-      <c r="L81" s="11" t="s">
-        <v>355</v>
-      </c>
-      <c r="M81" s="7" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:13" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="7" t="s">
         <v>66</v>
       </c>
@@ -6473,119 +6439,86 @@
         <v>S102_5079</v>
       </c>
       <c r="E82" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="F82" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="F82" s="7" t="s">
-        <v>346</v>
-      </c>
       <c r="G82" s="7" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="H82" s="7" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="I82" s="7" t="s">
         <v>9</v>
       </c>
       <c r="K82" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L82" s="7" t="s">
-        <v>347</v>
+        <v>197</v>
+      </c>
+      <c r="L82" s="11" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="83" spans="1:13" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B83" s="7" t="str">
         <f t="shared" si="4"/>
         <v>S102_5083</v>
       </c>
       <c r="D83" s="7" t="str">
-        <f>B80</f>
-        <v>S102_5080</v>
+        <f>B82</f>
+        <v>S102_5082</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="F83" s="7" t="s">
-        <v>350</v>
+        <v>371</v>
       </c>
       <c r="G83" s="7" t="s">
-        <v>349</v>
+        <v>372</v>
       </c>
       <c r="H83" s="7" t="s">
-        <v>352</v>
+        <v>373</v>
       </c>
       <c r="I83" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="K83" s="7" t="s">
-        <v>202</v>
+        <v>10</v>
+      </c>
+      <c r="K83" s="11" t="s">
+        <v>27</v>
       </c>
       <c r="L83" s="11" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+      <c r="M83" s="7" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" ht="81" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B84" s="7" t="str">
         <f t="shared" si="4"/>
         <v>S102_5084</v>
       </c>
-      <c r="D84" s="7" t="str">
-        <f>B83</f>
-        <v>S102_5083</v>
-      </c>
-      <c r="E84" s="7" t="s">
-        <v>342</v>
-      </c>
       <c r="F84" s="7" t="s">
-        <v>376</v>
+        <v>37</v>
       </c>
       <c r="G84" s="7" t="s">
-        <v>377</v>
+        <v>333</v>
       </c>
       <c r="H84" s="7" t="s">
-        <v>378</v>
+        <v>39</v>
       </c>
       <c r="I84" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="K84" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="L84" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="M84" s="7" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13" ht="81" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="B85" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>S102_5085</v>
-      </c>
-      <c r="F85" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G85" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="H85" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="I85" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
+    </row>
+    <row r="85" spans="1:13" ht="28.9" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="86" spans="1:13" ht="28.9" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="87" spans="1:13" ht="28.9" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="88" spans="1:13" ht="28.9" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6737,24 +6670,23 @@
     <row r="234" ht="28.9" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="235" ht="28.9" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="236" ht="28.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="237" ht="28.9" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B74:L74"/>
-    <mergeCell ref="F75:J75"/>
-    <mergeCell ref="B75:E75"/>
+    <mergeCell ref="B73:L73"/>
+    <mergeCell ref="F74:J74"/>
+    <mergeCell ref="B74:E74"/>
     <mergeCell ref="B2:L2"/>
-    <mergeCell ref="B34:L34"/>
+    <mergeCell ref="B33:L33"/>
     <mergeCell ref="F3:J3"/>
     <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B49:L49"/>
-    <mergeCell ref="F72:J72"/>
-    <mergeCell ref="B72:E72"/>
-    <mergeCell ref="F50:J50"/>
-    <mergeCell ref="B50:E50"/>
-    <mergeCell ref="F35:J35"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="B71:L71"/>
+    <mergeCell ref="B48:L48"/>
+    <mergeCell ref="F71:J71"/>
+    <mergeCell ref="B71:E71"/>
+    <mergeCell ref="F49:J49"/>
+    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="F34:J34"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="B70:L70"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="48" fitToHeight="0" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -6771,200 +6703,200 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" style="38" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" style="38" customWidth="1"/>
-    <col min="3" max="3" width="25" style="38" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" style="38" customWidth="1"/>
-    <col min="5" max="5" width="25.42578125" style="38" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="44.140625" style="38" customWidth="1"/>
-    <col min="7" max="7" width="26.85546875" style="38" customWidth="1"/>
-    <col min="8" max="8" width="27.28515625" style="38" customWidth="1"/>
-    <col min="9" max="9" width="13" style="38" customWidth="1"/>
-    <col min="10" max="10" width="17.85546875" style="38" customWidth="1"/>
-    <col min="11" max="12" width="13.28515625" style="38" customWidth="1"/>
-    <col min="13" max="13" width="17.7109375" style="38" customWidth="1"/>
-    <col min="14" max="16384" width="8.85546875" style="34"/>
+    <col min="1" max="1" width="19.42578125" style="22" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" style="22" customWidth="1"/>
+    <col min="3" max="3" width="25" style="22" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" style="22" customWidth="1"/>
+    <col min="5" max="5" width="25.42578125" style="22" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="44.140625" style="22" customWidth="1"/>
+    <col min="7" max="7" width="26.85546875" style="22" customWidth="1"/>
+    <col min="8" max="8" width="27.28515625" style="22" customWidth="1"/>
+    <col min="9" max="9" width="13" style="22" customWidth="1"/>
+    <col min="10" max="10" width="17.85546875" style="22" customWidth="1"/>
+    <col min="11" max="12" width="13.28515625" style="22" customWidth="1"/>
+    <col min="13" max="13" width="17.7109375" style="22" customWidth="1"/>
+    <col min="14" max="16384" width="8.85546875" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="31" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
+    <row r="1" spans="1:14" s="16" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="E1" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="F1" s="35" t="s">
+      <c r="F1" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="G1" s="35" t="s">
+      <c r="G1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="35" t="s">
+      <c r="H1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="35" t="s">
+      <c r="I1" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="J1" s="35" t="s">
+      <c r="J1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="35" t="s">
+      <c r="K1" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="L1" s="35" t="s">
-        <v>367</v>
-      </c>
-      <c r="M1" s="36" t="s">
+      <c r="L1" s="19" t="s">
+        <v>362</v>
+      </c>
+      <c r="M1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="30"/>
-    </row>
-    <row r="2" spans="1:14" s="32" customFormat="1" ht="48" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
+      <c r="N1" s="15"/>
+    </row>
+    <row r="2" spans="1:14" s="7" customFormat="1" ht="48" x14ac:dyDescent="0.25">
+      <c r="A2" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="B2" s="37" t="str">
+      <c r="B2" s="21" t="str">
         <f>"S102_X"&amp;TEXT(ROW(), "000")</f>
         <v>S102_X002</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37" t="s">
-        <v>372</v>
-      </c>
-      <c r="G2" s="37" t="s">
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21" t="s">
+        <v>367</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>359</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>360</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21" t="s">
+        <v>361</v>
+      </c>
+      <c r="L2" s="21" t="s">
+        <v>363</v>
+      </c>
+      <c r="M2" s="21" t="s">
         <v>364</v>
       </c>
-      <c r="H2" s="37" t="s">
-        <v>365</v>
-      </c>
-      <c r="I2" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37" t="s">
-        <v>366</v>
-      </c>
-      <c r="L2" s="37" t="s">
-        <v>368</v>
-      </c>
-      <c r="M2" s="37" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" s="32" customFormat="1" ht="36" x14ac:dyDescent="0.25">
-      <c r="A3" s="37" t="s">
+    </row>
+    <row r="3" spans="1:14" s="7" customFormat="1" ht="36" x14ac:dyDescent="0.25">
+      <c r="A3" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="B3" s="37" t="str">
+      <c r="B3" s="21" t="str">
         <f>"S102_X"&amp;TEXT(ROW(), "000")</f>
         <v>S102_X003</v>
       </c>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37" t="s">
-        <v>373</v>
-      </c>
-      <c r="G3" s="37" t="s">
-        <v>370</v>
-      </c>
-      <c r="H3" s="37" t="s">
-        <v>371</v>
-      </c>
-      <c r="I3" s="37" t="s">
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21" t="s">
+        <v>368</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>365</v>
+      </c>
+      <c r="H3" s="21" t="s">
+        <v>366</v>
+      </c>
+      <c r="I3" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37" t="s">
-        <v>366</v>
-      </c>
-      <c r="L3" s="37" t="s">
+      <c r="J3" s="21"/>
+      <c r="K3" s="21" t="s">
+        <v>361</v>
+      </c>
+      <c r="L3" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="M3" s="37"/>
-    </row>
-    <row r="4" spans="1:14" s="32" customFormat="1" ht="72" x14ac:dyDescent="0.25">
-      <c r="A4" s="37" t="s">
+      <c r="M3" s="21"/>
+    </row>
+    <row r="4" spans="1:14" s="7" customFormat="1" ht="72" x14ac:dyDescent="0.25">
+      <c r="A4" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="B4" s="37" t="str">
+      <c r="B4" s="21" t="str">
         <f>"S102_X"&amp;TEXT(ROW(), "000")</f>
         <v>S102_X004</v>
       </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37" t="s">
-        <v>374</v>
-      </c>
-      <c r="G4" s="37" t="s">
-        <v>389</v>
-      </c>
-      <c r="H4" s="37" t="s">
-        <v>390</v>
-      </c>
-      <c r="I4" s="37" t="s">
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21" t="s">
+        <v>369</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>384</v>
+      </c>
+      <c r="H4" s="21" t="s">
+        <v>385</v>
+      </c>
+      <c r="I4" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37" t="s">
-        <v>366</v>
-      </c>
-      <c r="L4" s="37" t="s">
-        <v>391</v>
-      </c>
-      <c r="M4" s="39" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" s="32" customFormat="1" ht="24" x14ac:dyDescent="0.25">
-      <c r="A5" s="37" t="s">
+      <c r="J4" s="21"/>
+      <c r="K4" s="21" t="s">
+        <v>361</v>
+      </c>
+      <c r="L4" s="21" t="s">
+        <v>386</v>
+      </c>
+      <c r="M4" s="23" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" s="7" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="A5" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="B5" s="37" t="str">
+      <c r="B5" s="21" t="str">
         <f>"S102_X"&amp;TEXT(ROW(), "000")</f>
         <v>S102_X005</v>
       </c>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37" t="s">
-        <v>380</v>
-      </c>
-      <c r="G5" s="37" t="s">
-        <v>381</v>
-      </c>
-      <c r="H5" s="37" t="s">
-        <v>382</v>
-      </c>
-      <c r="I5" s="37" t="s">
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21" t="s">
+        <v>375</v>
+      </c>
+      <c r="G5" s="21" t="s">
+        <v>376</v>
+      </c>
+      <c r="H5" s="21" t="s">
+        <v>377</v>
+      </c>
+      <c r="I5" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="37"/>
-      <c r="K5" s="37" t="s">
+      <c r="J5" s="21"/>
+      <c r="K5" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="L5" s="37" t="s">
-        <v>383</v>
-      </c>
-      <c r="M5" s="37"/>
-    </row>
-    <row r="6" spans="1:14" s="33" customFormat="1" ht="72" x14ac:dyDescent="0.25">
+      <c r="L5" s="21" t="s">
+        <v>378</v>
+      </c>
+      <c r="M5" s="21"/>
+    </row>
+    <row r="6" spans="1:14" s="17" customFormat="1" ht="72" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="B6" s="37" t="str">
+      <c r="B6" s="21" t="str">
         <f t="shared" ref="B6" si="0">"S102_X"&amp;TEXT(ROW(), "000")</f>
         <v>S102_X006</v>
       </c>
@@ -6972,13 +6904,13 @@
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
       <c r="F6" s="13" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="I6" s="13" t="s">
         <v>10</v>
@@ -6988,13 +6920,13 @@
         <v>27</v>
       </c>
       <c r="L6" s="13" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="M6" s="13" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" s="33" customFormat="1" x14ac:dyDescent="0.25">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13"/>
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
@@ -7009,7 +6941,7 @@
       <c r="L7" s="13"/>
       <c r="M7" s="13"/>
     </row>
-    <row r="8" spans="1:14" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13"/>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
@@ -7024,7 +6956,7 @@
       <c r="L8" s="13"/>
       <c r="M8" s="13"/>
     </row>
-    <row r="9" spans="1:14" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13"/>
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
@@ -7039,7 +6971,7 @@
       <c r="L9" s="13"/>
       <c r="M9" s="13"/>
     </row>
-    <row r="10" spans="1:14" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13"/>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
@@ -7054,7 +6986,7 @@
       <c r="L10" s="13"/>
       <c r="M10" s="13"/>
     </row>
-    <row r="11" spans="1:14" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13"/>
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
@@ -7069,7 +7001,7 @@
       <c r="L11" s="13"/>
       <c r="M11" s="13"/>
     </row>
-    <row r="12" spans="1:14" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13"/>
       <c r="B12" s="13"/>
       <c r="C12" s="13"/>
@@ -7084,7 +7016,7 @@
       <c r="L12" s="13"/>
       <c r="M12" s="13"/>
     </row>
-    <row r="13" spans="1:14" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>
       <c r="B13" s="13"/>
       <c r="C13" s="13"/>
@@ -7099,7 +7031,7 @@
       <c r="L13" s="13"/>
       <c r="M13" s="13"/>
     </row>
-    <row r="14" spans="1:14" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13"/>
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
@@ -7114,7 +7046,7 @@
       <c r="L14" s="13"/>
       <c r="M14" s="13"/>
     </row>
-    <row r="15" spans="1:14" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="13"/>
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
@@ -7129,7 +7061,7 @@
       <c r="L15" s="13"/>
       <c r="M15" s="13"/>
     </row>
-    <row r="16" spans="1:14" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="13"/>
       <c r="B16" s="13"/>
       <c r="C16" s="13"/>
@@ -7144,7 +7076,7 @@
       <c r="L16" s="13"/>
       <c r="M16" s="13"/>
     </row>
-    <row r="17" spans="1:13" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13"/>
       <c r="B17" s="13"/>
       <c r="C17" s="13"/>
@@ -7159,7 +7091,7 @@
       <c r="L17" s="13"/>
       <c r="M17" s="13"/>
     </row>
-    <row r="18" spans="1:13" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13"/>
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
@@ -7174,7 +7106,7 @@
       <c r="L18" s="13"/>
       <c r="M18" s="13"/>
     </row>
-    <row r="19" spans="1:13" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13"/>
       <c r="B19" s="13"/>
       <c r="C19" s="13"/>
@@ -7189,7 +7121,7 @@
       <c r="L19" s="13"/>
       <c r="M19" s="13"/>
     </row>
-    <row r="20" spans="1:13" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="13"/>
       <c r="B20" s="13"/>
       <c r="C20" s="13"/>
@@ -7204,7 +7136,7 @@
       <c r="L20" s="13"/>
       <c r="M20" s="13"/>
     </row>
-    <row r="21" spans="1:13" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13"/>
       <c r="B21" s="13"/>
       <c r="C21" s="13"/>
@@ -7219,7 +7151,7 @@
       <c r="L21" s="13"/>
       <c r="M21" s="13"/>
     </row>
-    <row r="22" spans="1:13" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="13"/>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
@@ -7234,7 +7166,7 @@
       <c r="L22" s="13"/>
       <c r="M22" s="13"/>
     </row>
-    <row r="23" spans="1:13" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="13"/>
       <c r="B23" s="13"/>
       <c r="C23" s="13"/>
@@ -7249,7 +7181,7 @@
       <c r="L23" s="13"/>
       <c r="M23" s="13"/>
     </row>
-    <row r="24" spans="1:13" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="13"/>
       <c r="B24" s="13"/>
       <c r="C24" s="13"/>
@@ -7264,7 +7196,7 @@
       <c r="L24" s="13"/>
       <c r="M24" s="13"/>
     </row>
-    <row r="25" spans="1:13" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="13"/>
       <c r="B25" s="13"/>
       <c r="C25" s="13"/>
@@ -7279,7 +7211,7 @@
       <c r="L25" s="13"/>
       <c r="M25" s="13"/>
     </row>
-    <row r="26" spans="1:13" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="13"/>
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
@@ -7294,7 +7226,7 @@
       <c r="L26" s="13"/>
       <c r="M26" s="13"/>
     </row>
-    <row r="27" spans="1:13" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="13"/>
       <c r="B27" s="13"/>
       <c r="C27" s="13"/>
@@ -7309,7 +7241,7 @@
       <c r="L27" s="13"/>
       <c r="M27" s="13"/>
     </row>
-    <row r="28" spans="1:13" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="13"/>
       <c r="B28" s="13"/>
       <c r="C28" s="13"/>
@@ -7324,7 +7256,7 @@
       <c r="L28" s="13"/>
       <c r="M28" s="13"/>
     </row>
-    <row r="29" spans="1:13" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="13"/>
       <c r="B29" s="13"/>
       <c r="C29" s="13"/>
@@ -7339,7 +7271,7 @@
       <c r="L29" s="13"/>
       <c r="M29" s="13"/>
     </row>
-    <row r="30" spans="1:13" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="13"/>
       <c r="B30" s="13"/>
       <c r="C30" s="13"/>
@@ -7354,7 +7286,7 @@
       <c r="L30" s="13"/>
       <c r="M30" s="13"/>
     </row>
-    <row r="31" spans="1:13" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="13"/>
       <c r="B31" s="13"/>
       <c r="C31" s="13"/>
@@ -7369,7 +7301,7 @@
       <c r="L31" s="13"/>
       <c r="M31" s="13"/>
     </row>
-    <row r="32" spans="1:13" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="13"/>
       <c r="B32" s="13"/>
       <c r="C32" s="13"/>
@@ -7384,7 +7316,7 @@
       <c r="L32" s="13"/>
       <c r="M32" s="13"/>
     </row>
-    <row r="33" spans="1:13" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="13"/>
       <c r="B33" s="13"/>
       <c r="C33" s="13"/>
@@ -7399,7 +7331,7 @@
       <c r="L33" s="13"/>
       <c r="M33" s="13"/>
     </row>
-    <row r="34" spans="1:13" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="13"/>
       <c r="B34" s="13"/>
       <c r="C34" s="13"/>
@@ -7414,7 +7346,7 @@
       <c r="L34" s="13"/>
       <c r="M34" s="13"/>
     </row>
-    <row r="35" spans="1:13" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="13"/>
       <c r="B35" s="13"/>
       <c r="C35" s="13"/>
@@ -7429,7 +7361,7 @@
       <c r="L35" s="13"/>
       <c r="M35" s="13"/>
     </row>
-    <row r="36" spans="1:13" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="13"/>
       <c r="B36" s="13"/>
       <c r="C36" s="13"/>
@@ -7444,7 +7376,7 @@
       <c r="L36" s="13"/>
       <c r="M36" s="13"/>
     </row>
-    <row r="37" spans="1:13" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="13"/>
       <c r="B37" s="13"/>
       <c r="C37" s="13"/>
